--- a/uploads/output_test1.xlsx
+++ b/uploads/output_test1.xlsx
@@ -2728,7 +2728,7 @@
         <v>2015</v>
       </c>
       <c r="Z24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3574,7 +3574,7 @@
         <v>2016</v>
       </c>
       <c r="Z33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4796,7 +4796,7 @@
         <v>2015</v>
       </c>
       <c r="Z46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
